--- a/TownStorySimpleVersion.xlsx
+++ b/TownStorySimpleVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biang/WorkSpace/NYUGC/GameDesign/NarrativeGameStory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NYUGC\NarrativeGameStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E019C5-CEE9-2844-BDA3-58D0B329310A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980F7F3-CF02-40F9-821B-8F610F78B183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -280,201 +280,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">To </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Emily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-So glad to know that you are in a relationship! I haven’t heard of his last name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> in town before.  If he does bad to you I will ask </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> to beat him.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">, 
-It's been months since you moved away, how's everything? I picked a scarf for you. Did you make a decision between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> is a good man, but </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">, you know, he's kind of special. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Emily</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hey man, 
-You're only a worker of the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>company</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>. Don't be interested in too many things. Take care of your family, otherwise they might be missing.
-No one</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="13"/>
@@ -663,71 +468,6 @@
   <si>
     <r>
       <t xml:space="preserve">&lt;Missing name&gt;
-We can definitely help you friend, if you can give me something important to you, such as your blood, your friend's life or your families'.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>The Vampire Association</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Missing name&gt;
-If you need someone die, please sacrifice yourself. Being one of us. It doesn't matter if you retreat.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>The Vampire Association</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-I'm worried about her, Her husband beats her everytime he got drunk, but she'd never call the police. It's horrible. She asked me for help but I have no idea.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Emily</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Missing name&gt;
 I'm sorry to put you in such a dangerous situation. Take a rest. I will </t>
     </r>
     <r>
@@ -813,54 +553,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-I had a little </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. I cannot write to you as often as usual. No worries. Tell him I won't be there.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <u/>
         <sz val="13"/>
         <color theme="1"/>
@@ -954,128 +646,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dear Postman,
-We are police. If you can </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>convince people that Jenna is a murderer</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> draw 3 letters at the end of your round.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear Postman,
-Vampire association need your help! </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Please convince people that Dalv is a vampire</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">
-If your succeed, draw 3 letters at the end of your round.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear Postman,
-This is the mission letter for you. If you can finish it, you'll get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>reward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Please convince people that Lisa is a murderer.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>If you succeed, seal a broken story you've made.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Uncle, 
 Thank you for the </t>
     </r>
@@ -1442,71 +1012,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Missing name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">
-You found my secret. Don’t tell </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">, otherwise I would bite you and transfer you as me.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Jenna</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Dear </t>
     </r>
     <r>
@@ -1608,45 +1113,6 @@
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
-      <t>Hey friend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-I am very surprised you are still alive. My wedding is next month. Do you plan to come?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Emily</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
       <t>Lisa</t>
     </r>
     <r>
@@ -1691,54 +1157,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Hey,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">
-I found you walking around </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>his</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> house. What did you find? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Issac</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
@@ -1799,44 +1217,6 @@
       <t>Dalv</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-I was scared last night. I found a dead body in front of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>' house. What's going on? Are you OK? Did he tell you about this?</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1910,49 +1290,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>A scrawled name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>&gt;
-Animals are getting killed cruelly in your town. It is not a good sign. Such a cruel person took away all their blood when alive. Maybe next victim would be a human.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Applicant,
 Sorry you're not accepted to be one of us. Please do something special to show your loyalty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear Grandpa, 
-Mom has gone. Dad said mom moved to live with you, but I don't understand, because she just slept in a box underground. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Emily</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2077,71 +1416,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Alan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-We planned to get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> back and kill him. But somehow he get the job from </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Biocreature Inc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. It's tough now. I need you bite him or kill him.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>The Vampire Association</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Dear friend, don't worry. The transforming process would be painless. I experienced that and I know. Trust me. Do it with </t>
     </r>
     <r>
@@ -2226,6 +1500,534 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Friend,
+Be careful about the woman. she may be a spy. She want information from our company. Don't mess it up. New medicine is almost ready, which can transfer without pain.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Alan</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My kid, 
+I'm so worried about you. It broke my heart to know you left home and won't come back for Christmas. Put on this sweater I made for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+I should go to see a patient in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oakland City Hospital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. Don't tell anyone my plan especially him.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Father, 
+Mom passed away yesterday. I don't want to hurt someone and to be hurt. But sometimes I cannot control myself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Issac</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mom,
+I am very worried about your </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>illness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. I'll go home tomorrow and I got an excuse from the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>band</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>. I'll take enough money.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+Worried about </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Biocreature Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. They're likely doing human experiments. I don't agree that you take such risks. At least you should meet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> first.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear driver,
+We are sorry to inform you that you're fired. We discovered that you have </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>alcohol issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> and think it is not appropriate to the occupation. Good luck.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+Chuck's Trucks Co., Ltd.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+Can you help us offer him a job in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Biocreature Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> so that he can leave his wife and son. We can give you a fresh body.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Friend,
+This letter just for a test. If you cannot receive it, there must be someone inside the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>post office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> who monitors every letter of mine!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear,
+Today I met </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. He is a doctor working in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Biocreature Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">.. I think he might know something about that. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend,
+We've get the money. The plan is going on. Please get prepared.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+I had a little </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>accident</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>. I cannot write to you as often as usual. No worries. Tell him I won't be there.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's been months since you moved away. I picked a scarf for you. Did you make a decision between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> is a good man, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">, you know, he's kind of special. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Emily</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophet says:
+Animals are getting killed cruelly in your town. It is not a good sign. Such a cruel person took away all their blood when alive. Maybe next victim would be a human, or a baby.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Hey,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+I found you was walking around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>his</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> house. What did you find? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Issac</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Old friend,
+I'm worried about her, Her husband beats her everytime he got drunk, but she'd never call the police. It's horrible. She asked me for help but I have no idea.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Emily</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="13"/>
@@ -2258,16 +2060,151 @@
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
-      <t xml:space="preserve"> from his wife now. Maybe from now on I can enter the company for more information. Once I get caught, I know what I should do.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Friend,
-Be careful about the woman. she may be a spy. She want information from our company. Don't mess it up. New medicine is almost ready, which can transfer without pain.
-</t>
-    </r>
+      <t xml:space="preserve"> from his wife now. Maybe from now on I can enter the company for more information. Once I get caught, I know what I should do.
+Yours</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey shit, 
+Don't be interested in too many things. Take care of your family, otherwise they might be missing.
+Some big guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Cannot see my name&gt;
+One life is worth another. A baby worth 2 lives. Fair trade. Don't hesitate.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Cannot see my name&gt;
+We can definitely help you friend, if you can give me something important to you, such as your blood, your friend's life or your families'.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Cannot see my name&gt;
+If you need someone die, please sacrifice yourself. Being one of us. It doesn't matter if you retreat.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hey, 
+Stop wasting your time writing to that little shit. It might be father's smartest decision to kick it out. Just leave it to die!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">, 
+So glad to know that you are in a relationship! I haven’t heard of his last name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> in town before.  If he does bad to you I will ask </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> to beat him.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2277,65 +2214,138 @@
       </rPr>
       <t>Alan</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+We planned to kill the man and get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> back. But somehow he get the job from </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Biocreature Inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. It's tough now. I need you bite him or kill him.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Bank Statement
-Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> owes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Him</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a lot of money. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend,
-The plan is going on. Please get prepared.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My kid, 
-I'm so worried about you. It broke my heart to know you left home and won't come back for Christmas. Put on this sweater I made for you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hey, 
-Stop wasting your time writing to that little shit. It might be father's smartest decision to kick him out. Just leave him to die!
-</t>
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Somebody</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> owes bank a lot of money, and in great debts.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+I was scared last night. I found a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>dead body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> in front of </t>
     </r>
     <r>
       <rPr>
@@ -2346,250 +2356,161 @@
       </rPr>
       <t>Dalv</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>' house. What's going on? Are you OK? Did he tell you about this?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Missing name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+You found my secret. Don’t tell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">, otherwise I would bite you and transfer you as me. I will go to hospital tomorrow. Don't let me see you.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Jenna</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Old friend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
       <t xml:space="preserve">,
-I should go to see a patient in </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oakland City Hospital</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. Don't tell anyone my plan especially him.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear Father, 
-Mom passed away yesterday. I don't want to hurt someone and to be hurt. But sometimes I cannot control myself.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Issac</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mom,
-I am very worried about your </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>illness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. I'll go home tomorrow and I got an excuse from the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>band</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>. I'll take enough money.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-Worried about </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Biocreature Inc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. They're likely doing human experiments. I don't agree that you take such risks. At least you should meet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> first.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear driver,
-We are sorry to inform you that you're fired. We discovered that you have </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>alcohol issues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> and think it is not appropriate to the occupation. Good luck.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">
-Chuck's Trucks Co., Ltd.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-Can you help us offer him a job in </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Biocreature Inc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> so that he can leave his wife and son. We can give you a fresh body.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>The Vampire Association</t>
-    </r>
+I am very surprised you are still alive. My wedding is next month. Do you plan to come? See you tomorrow.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Emily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Grandpa, 
+Mom has gone in hospital. Dad said mom moved to live with you, but I don't understand, because she just slept in a box underground. 
+Yours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Postman,
+We are police. If you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>convince people that One of Issac, Alan and Emily is a vampire,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> draw 2 letters at the end of your round.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm coming for you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the poisonours. Keep it secretly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We cannot meet again, dear. I gonna die. Please revenge for me.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2600,7 +2521,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
@@ -2610,111 +2531,205 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> is Issac's father.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv or Oscar is Issac's father.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>If you succeed, discard arbitrary number of your hand cards and replenish to five cards.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
+If you succeed, discard arbitrary number of your hand cards and replenish to five cards.
+Game Designer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Postman,
+Vampire association need your help! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Please convince people that Dalv is a vampire, or Alan is a killer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+If your succeed, draw 3 letters at the end of your round.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Postman,
+Mission: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Please convince people that Issac or Oscar is dead.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+If you succeed, discard arbitrary number of your hand cards and replenish to five cards.
 Game Designer</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Friend,
-This letter just for a test. If you cannot receive it, there must be someone inside the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>post office</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> who monitors every letter of mine!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dear,
-Today I met </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. He is a doctor working in </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Biocreature Inc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">.. I think he might know something about that. </t>
+      <t xml:space="preserve">Dear Postman,
+This is the mission letter for you. If you can finish it, you'll get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Please convince people that Oscar is a vampire, or Emily is a victim.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+If you succeed, seal a broken story you've made.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Postman,
+This is the mission letter for you. If you can finish it, you'll get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Please convince people that Lisa is a murderer, or Dalv is a killer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">
+If you succeed, seal a broken story you've made.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Postman,
+We are police. If you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>convince people that Emily or Jenna is a murderer</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> draw 3 letters at the end of your round.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2723,7 +2738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2861,24 +2876,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Courgette"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2935,13 +2944,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -3258,271 +3267,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2D91BF-D2A4-4008-81FA-299CED430F2F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="270.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="270.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="1"/>
-    <col min="2" max="8" width="27" style="9"/>
-    <col min="9" max="16384" width="27" style="1"/>
+    <col min="1" max="16384" width="27" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="270.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="V1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="270.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="270.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>7</v>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="W3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>44</v>
+      <c r="Z3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="270.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="M4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="270.75" customHeight="1">
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="270.75" customHeight="1">
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="270.75" customHeight="1">
-      <c r="M7" s="2" t="s">
-        <v>60</v>
-      </c>
+    <row r="4" spans="1:32" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToWidth="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TownStorySimpleVersion.xlsx
+++ b/TownStorySimpleVersion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NYUGC\NarrativeGameStory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541BE5A-A978-46F9-9808-D7C8DB2868C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF407C-662E-4C29-9A2D-4BC2937B5B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
+    <workbookView xWindow="-10515" yWindow="2715" windowWidth="21600" windowHeight="11145" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1089,37 +1089,6 @@
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
-      <t>Alan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-It's glad to tell you that you are accepted by the vampire family. After that, we can drink blood and play happily together.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>The Vampire Association</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
       <t>Lisa</t>
     </r>
     <r>
@@ -3102,54 +3071,6 @@
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
-      <t>Alan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-Dad doesn't have much time left and he wants to see you. He regreted to kick you out. Whatever, if you saw this letter, come to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oakland City Hospital</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
       <t>Oscar</t>
     </r>
     <r>
@@ -3556,6 +3477,85 @@
         <rFont val="Courgette"/>
       </rPr>
       <t>Lisa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Alan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+It's glad to tell you that you are accepted by the vampire family. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>The Vampire Association</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Alan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+Your dad doesn't have much time left and he wants to see you. He regreted to kick you out. Whatever, if you saw this letter, come to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oakland City Hospital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4087,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2D91BF-D2A4-4008-81FA-299CED430F2F}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="270.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4098,28 +4098,28 @@
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -4128,13 +4128,13 @@
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>20</v>
@@ -4143,16 +4143,16 @@
         <v>3</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>4</v>
@@ -4161,22 +4161,22 @@
         <v>2</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -4185,16 +4185,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
@@ -4203,31 +4203,31 @@
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>7</v>
@@ -4239,62 +4239,62 @@
         <v>8</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>9</v>
@@ -4303,22 +4303,22 @@
         <v>10</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="8"/>
     </row>

--- a/TownStorySimpleVersion.xlsx
+++ b/TownStorySimpleVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NYUGC\NarrativeGameStory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biang/WorkSpace/NYUGC/GameDesign/NarrativeGameStory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF407C-662E-4C29-9A2D-4BC2937B5B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6453FD1A-68EB-5540-AA8E-FD8AE7CA3822}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10515" yWindow="2715" windowWidth="21600" windowHeight="11145" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CF2712CA-6C01-432F-9659-6B6E25D6562E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,57 +912,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Dalv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">,
-I decided not to tell
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Issac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve"> you work in
-Biocreature Inc. It’s a
-dangerous work. Take
-care of yourself.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Lisa</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Hey </t>
     </r>
     <r>
@@ -3484,11 +3433,59 @@
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
       <t>Alan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">,
+Your dad doesn't have much time left and he wants to see you. He regreted to kick you out. Whatever, if you saw this letter, come to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oakland City Hospital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Oscar</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dear Alan</t>
     </r>
     <r>
       <rPr>
@@ -3515,47 +3512,51 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Alan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Dalv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Courgette"/>
       </rPr>
       <t xml:space="preserve">,
-Your dad doesn't have much time left and he wants to see you. He regreted to kick you out. Whatever, if you saw this letter, come to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oakland City Hospital</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courgette"/>
-      </rPr>
-      <t>Oscar</t>
+I decided not to tell
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Issac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t xml:space="preserve"> you work in
+Biocreature Inc. It’s a
+dangerous work. Take
+care of yourself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courgette"/>
+      </rPr>
+      <t>Lisa</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3564,7 +3565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4087,72 +4088,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2D91BF-D2A4-4008-81FA-299CED430F2F}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="270.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="270.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="27" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>4</v>
@@ -4161,22 +4162,22 @@
         <v>2</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -4185,116 +4186,116 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="270.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>9</v>
@@ -4303,26 +4304,26 @@
         <v>10</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="270.75" customHeight="1">
       <c r="I4" s="10"/>
     </row>
   </sheetData>
